--- a/Lab 03/diglab_03_01/diglab_03_01_pics/diglab_03_01_table.xlsx
+++ b/Lab 03/diglab_03_01/diglab_03_01_pics/diglab_03_01_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\College Year 2\2110263 DIG LOGIC LAB I\2110263-DIG-LOGIC-LAB-I\Lab 03\diglab_03_01\diglab_03_01_pics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A704CA7F-CB28-408C-9F77-7D04793AA8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47006CD8-ECF3-4DB0-90B5-CCF5DEE01BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2F5C648-1E30-482C-A813-F5047B4D4EC4}"/>
+    <workbookView xWindow="1728" yWindow="72" windowWidth="10140" windowHeight="11472" xr2:uid="{E2F5C648-1E30-482C-A813-F5047B4D4EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,40 +36,40 @@
     <t>In</t>
   </si>
   <si>
-    <t>n1</t>
-  </si>
-  <si>
-    <t>n2</t>
-  </si>
-  <si>
-    <t>n3</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
     <t>DON'T CARE</t>
   </si>
   <si>
-    <t>n0</t>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X0</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F19A281-2ECC-4C6E-BD02-235824F1149D}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1018,37 +1018,37 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
